--- a/2-local-search/local-search-results/ACO/gaps/GAPs_for_ACO_with_Change2Indexes.xlsx
+++ b/2-local-search/local-search-results/ACO/gaps/GAPs_for_ACO_with_Change2Indexes.xlsx
@@ -482,13 +482,13 @@
         <v>133.286</v>
       </c>
       <c r="F2" t="n">
-        <v>228.2186806126433</v>
+        <v>230.3514265630649</v>
       </c>
       <c r="G2" t="n">
-        <v>0.712247952618004</v>
+        <v>0.7282492276988196</v>
       </c>
       <c r="H2" t="n">
-        <v>7008</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="3">
@@ -510,13 +510,13 @@
         <v>184.187</v>
       </c>
       <c r="F3" t="n">
-        <v>215.5425652768938</v>
+        <v>257.412439160271</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1702376675709672</v>
+        <v>0.397560300999913</v>
       </c>
       <c r="H3" t="n">
-        <v>8103</v>
+        <v>8673</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>0.5846944925985385</v>
       </c>
       <c r="H4" t="n">
-        <v>6532</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="5">
@@ -566,13 +566,13 @@
         <v>314.469</v>
       </c>
       <c r="F5" t="n">
-        <v>527.6228870738862</v>
+        <v>519.9835668488842</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6778216201720558</v>
+        <v>0.6535288592798787</v>
       </c>
       <c r="H5" t="n">
-        <v>7263</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="6">
@@ -585,22 +585,22 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
         <v>162.712</v>
       </c>
       <c r="F6" t="n">
-        <v>546.5856214141129</v>
+        <v>541.724163630942</v>
       </c>
       <c r="G6" t="n">
-        <v>2.359221332256459</v>
+        <v>2.329343647862125</v>
       </c>
       <c r="H6" t="n">
-        <v>6921</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="7">
@@ -622,13 +622,13 @@
         <v>189.481</v>
       </c>
       <c r="F7" t="n">
-        <v>445.4005876314076</v>
+        <v>443.991917123194</v>
       </c>
       <c r="G7" t="n">
-        <v>1.350634562997913</v>
+        <v>1.343200200142463</v>
       </c>
       <c r="H7" t="n">
-        <v>7292</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="8">
@@ -650,13 +650,13 @@
         <v>252.397</v>
       </c>
       <c r="F8" t="n">
-        <v>452.2628842052347</v>
+        <v>440.2779071838698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7918710769352836</v>
+        <v>0.7443864514390813</v>
       </c>
       <c r="H8" t="n">
-        <v>24184.01301765442</v>
+        <v>24804.0009970665</v>
       </c>
     </row>
     <row r="9">
@@ -669,22 +669,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>306.019</v>
       </c>
       <c r="F9" t="n">
-        <v>389.8663453012761</v>
+        <v>421.8012363372004</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2739939196627531</v>
+        <v>0.3783498290537529</v>
       </c>
       <c r="H9" t="n">
-        <v>33268</v>
+        <v>37121</v>
       </c>
     </row>
     <row r="10">
@@ -706,13 +706,13 @@
         <v>623.861</v>
       </c>
       <c r="F10" t="n">
-        <v>1149.770640073444</v>
+        <v>1164.91514040664</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8429916921773343</v>
+        <v>0.8672671322724773</v>
       </c>
       <c r="H10" t="n">
-        <v>20384</v>
+        <v>21122</v>
       </c>
     </row>
     <row r="11">
@@ -734,13 +734,13 @@
         <v>512.907</v>
       </c>
       <c r="F11" t="n">
-        <v>967.0158593539289</v>
+        <v>961.6269615812663</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8853629592770792</v>
+        <v>0.8748563805548886</v>
       </c>
       <c r="H11" t="n">
-        <v>26977</v>
+        <v>26551.00154805183</v>
       </c>
     </row>
     <row r="12">
@@ -753,22 +753,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E12" t="n">
         <v>299.824</v>
       </c>
       <c r="F12" t="n">
-        <v>1156.617526993793</v>
+        <v>1122.696321558579</v>
       </c>
       <c r="G12" t="n">
-        <v>2.857654914195639</v>
+        <v>2.74451785567059</v>
       </c>
       <c r="H12" t="n">
-        <v>21488</v>
+        <v>21399</v>
       </c>
     </row>
     <row r="13">
@@ -781,22 +781,22 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
         <v>6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>252.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1035.453538027165</v>
+        <v>975.0052742339258</v>
       </c>
       <c r="G13" t="n">
-        <v>3.104870319235542</v>
+        <v>2.865233991016554</v>
       </c>
       <c r="H13" t="n">
-        <v>25274</v>
+        <v>25528</v>
       </c>
     </row>
     <row r="14">
@@ -809,22 +809,22 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E14" t="n">
         <v>549.659</v>
       </c>
       <c r="F14" t="n">
-        <v>1076.169062571005</v>
+        <v>1071.046881626486</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9578849115015042</v>
+        <v>0.948566077561699</v>
       </c>
       <c r="H14" t="n">
-        <v>87587</v>
+        <v>88009</v>
       </c>
     </row>
     <row r="15">
@@ -837,22 +837,22 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" t="n">
         <v>529.193</v>
       </c>
       <c r="F15" t="n">
-        <v>872.896510863</v>
+        <v>953.1821270611947</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6494861248410316</v>
+        <v>0.8011994245222342</v>
       </c>
       <c r="H15" t="n">
-        <v>174060.0037822723</v>
+        <v>163632</v>
       </c>
     </row>
     <row r="16">
@@ -874,13 +874,13 @@
         <v>872.746</v>
       </c>
       <c r="F16" t="n">
-        <v>1902.441224811666</v>
+        <v>1995.107508759281</v>
       </c>
       <c r="G16" t="n">
-        <v>1.179833794496526</v>
+        <v>1.286011633120382</v>
       </c>
       <c r="H16" t="n">
-        <v>73668</v>
+        <v>73173</v>
       </c>
     </row>
     <row r="17">
@@ -893,22 +893,22 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>684.174</v>
       </c>
       <c r="F17" t="n">
-        <v>1637.070753480732</v>
+        <v>1560.616548313977</v>
       </c>
       <c r="G17" t="n">
-        <v>1.392769607557043</v>
+        <v>1.281022880603439</v>
       </c>
       <c r="H17" t="n">
-        <v>109008</v>
+        <v>115320.0156254768</v>
       </c>
     </row>
     <row r="18">
@@ -930,13 +930,13 @@
         <v>665.3440000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>2122.256699967267</v>
+        <v>2156.830636387735</v>
       </c>
       <c r="G18" t="n">
-        <v>2.189713441418674</v>
+        <v>2.241677442627775</v>
       </c>
       <c r="H18" t="n">
-        <v>77100</v>
+        <v>77210</v>
       </c>
     </row>
     <row r="19">
@@ -958,13 +958,13 @@
         <v>628.503</v>
       </c>
       <c r="F19" t="n">
-        <v>1814.477838444112</v>
+        <v>1780.435396421399</v>
       </c>
       <c r="G19" t="n">
-        <v>1.886983575964015</v>
+        <v>1.832819248947736</v>
       </c>
       <c r="H19" t="n">
-        <v>101485.0015792847</v>
+        <v>103949.0022046566</v>
       </c>
     </row>
   </sheetData>
